--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508371.1598287689</v>
+        <v>373619.1215520712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1664213.506290205</v>
+        <v>1555005.918272593</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23879529.32664357</v>
+        <v>23762217.46705574</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4862406.946444586</v>
+        <v>4912118.618171322</v>
       </c>
     </row>
     <row r="11">
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>12.63746487257852</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>12.63746487257852</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="G23" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H23" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5.472354090406006</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.51302356503218</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.472354090405998</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="R29" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.47709305748431</v>
+        <v>27.15048843761069</v>
       </c>
     </row>
     <row r="31">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.472354090405996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.51302356503218</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V33" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
     </row>
     <row r="34">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H35" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.472354090405996</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.47709305748431</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="U39" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3742,20 +3742,20 @@
         <v>16.47709305748431</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>14.51302356503218</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>16.47709305748431</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.47709305748431</v>
+        <v>12.63746487257852</v>
       </c>
       <c r="F44" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>12.63746487257852</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="V45" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.716692659793409</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.92092770049815</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>31.12516274120289</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>43.18661360860734</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>43.18661360860734</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>14.77814352719786</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>28.9823785679026</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.18661360860734</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>42.898210101506</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.147816972986242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="C23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="D23" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="E23" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="F23" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24875246727849</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H23" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I23" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K23" t="n">
-        <v>2.887043131405913</v>
+        <v>4.034860104392155</v>
       </c>
       <c r="L23" t="n">
-        <v>19.19936525831539</v>
+        <v>34.55141727200636</v>
       </c>
       <c r="M23" t="n">
-        <v>35.51168738522486</v>
+        <v>65.06797443962057</v>
       </c>
       <c r="N23" t="n">
-        <v>51.82400951213433</v>
+        <v>95.58453160723478</v>
       </c>
       <c r="O23" t="n">
-        <v>65.90837222993726</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="V23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="W23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="X23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F24" t="n">
-        <v>51.24875246727849</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G24" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H24" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L24" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M24" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N24" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O24" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P24" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.90837222993726</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="R24" t="n">
-        <v>65.90837222993726</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="S24" t="n">
-        <v>65.90837222993726</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="T24" t="n">
-        <v>65.90837222993726</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="U24" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="V24" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="W24" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="X24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y24" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17.96169578549199</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="C26" t="n">
-        <v>17.96169578549199</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="D26" t="n">
-        <v>17.96169578549199</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="E26" t="n">
-        <v>17.96169578549199</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="F26" t="n">
-        <v>17.96169578549199</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G26" t="n">
-        <v>17.96169578549199</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="H26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L26" t="n">
-        <v>17.63048957150822</v>
+        <v>32.98254158519919</v>
       </c>
       <c r="M26" t="n">
-        <v>33.94281169841769</v>
+        <v>63.4990987528134</v>
       </c>
       <c r="N26" t="n">
-        <v>50.18030379588816</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O26" t="n">
-        <v>50.18030379588816</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P26" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="R26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="S26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="T26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="U26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="V26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="W26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="X26" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.60522412638524</v>
+        <v>95.87448508368297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17.96169578549199</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="C27" t="n">
-        <v>1.318167444598745</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="D27" t="n">
-        <v>1.318167444598745</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="E27" t="n">
-        <v>1.318167444598745</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="F27" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L27" t="n">
-        <v>16.97140584920884</v>
+        <v>18.11922282219508</v>
       </c>
       <c r="M27" t="n">
-        <v>33.28372797611831</v>
+        <v>48.63577998980929</v>
       </c>
       <c r="N27" t="n">
-        <v>49.59605010302778</v>
+        <v>79.15233715742349</v>
       </c>
       <c r="O27" t="n">
-        <v>65.90837222993724</v>
+        <v>109.6688943250377</v>
       </c>
       <c r="P27" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q27" t="n">
-        <v>65.90837222993726</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="R27" t="n">
-        <v>65.90837222993726</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="S27" t="n">
-        <v>65.90837222993726</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="T27" t="n">
-        <v>65.90837222993726</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="U27" t="n">
-        <v>65.90837222993726</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="V27" t="n">
-        <v>51.24875246727849</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="W27" t="n">
-        <v>34.60522412638524</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="X27" t="n">
-        <v>17.96169578549199</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.96169578549199</v>
+        <v>39.12978170063381</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F29" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G29" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H29" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I29" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J29" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K29" t="n">
-        <v>2.887043131405913</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L29" t="n">
-        <v>17.55565954206922</v>
+        <v>32.98254158519919</v>
       </c>
       <c r="M29" t="n">
-        <v>17.55565954206922</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N29" t="n">
-        <v>33.86798166897869</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O29" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="R29" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="S29" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="T29" t="n">
-        <v>34.60522412638524</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="U29" t="n">
-        <v>34.60522412638524</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="V29" t="n">
-        <v>34.60522412638524</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="W29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.96169578549199</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C30" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="D30" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E30" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="F30" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K30" t="n">
-        <v>1.318167444598745</v>
+        <v>16.09631097179661</v>
       </c>
       <c r="L30" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M30" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N30" t="n">
-        <v>49.59605010302778</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O30" t="n">
-        <v>65.90837222993724</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P30" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R30" t="n">
-        <v>51.24875246727849</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S30" t="n">
-        <v>51.24875246727849</v>
+        <v>92.16305399055</v>
       </c>
       <c r="T30" t="n">
-        <v>51.24875246727849</v>
+        <v>92.16305399055</v>
       </c>
       <c r="U30" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="V30" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="W30" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="X30" t="n">
-        <v>51.24875246727849</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="D32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E32" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="F32" t="n">
-        <v>17.96169578549199</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G32" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H32" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I32" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J32" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K32" t="n">
-        <v>2.887043131405913</v>
+        <v>4.034860104392155</v>
       </c>
       <c r="L32" t="n">
-        <v>2.887043131405913</v>
+        <v>16.02148094235761</v>
       </c>
       <c r="M32" t="n">
-        <v>17.55565954206922</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N32" t="n">
-        <v>33.86798166897869</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O32" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="R32" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="S32" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="T32" t="n">
-        <v>51.24875246727849</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="U32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="V32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="W32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="X32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="Y32" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="C33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="D33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="E33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="F33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="G33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K33" t="n">
-        <v>1.318167444598745</v>
+        <v>16.09631097179661</v>
       </c>
       <c r="L33" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M33" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N33" t="n">
-        <v>49.59605010302778</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O33" t="n">
-        <v>65.90837222993724</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P33" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.24875246727849</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="R33" t="n">
-        <v>51.24875246727849</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="S33" t="n">
-        <v>51.24875246727849</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="T33" t="n">
-        <v>51.24875246727849</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="U33" t="n">
-        <v>34.60522412638524</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="V33" t="n">
-        <v>17.96169578549199</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="W33" t="n">
-        <v>1.318167444598745</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="X33" t="n">
-        <v>1.318167444598745</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.318167444598745</v>
+        <v>7.993614811934478</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="D35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="F35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24875246727849</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H35" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I35" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J35" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K35" t="n">
-        <v>2.887043131405913</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L35" t="n">
-        <v>2.887043131405913</v>
+        <v>16.02148094235761</v>
       </c>
       <c r="M35" t="n">
-        <v>17.55565954206922</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N35" t="n">
-        <v>33.86798166897869</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O35" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P35" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="R35" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="S35" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="T35" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="U35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="V35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="W35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="X35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="Y35" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="C36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="D36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="E36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="F36" t="n">
-        <v>15.97778720725751</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="G36" t="n">
-        <v>15.97778720725751</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="H36" t="n">
-        <v>15.97778720725751</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I36" t="n">
-        <v>15.97778720725751</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J36" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K36" t="n">
-        <v>1.318167444598745</v>
+        <v>16.09631097179661</v>
       </c>
       <c r="L36" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M36" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N36" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.26484388904401</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="R36" t="n">
-        <v>32.62131554815076</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="S36" t="n">
-        <v>32.62131554815076</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="T36" t="n">
-        <v>32.62131554815076</v>
+        <v>101.4021154780325</v>
       </c>
       <c r="U36" t="n">
-        <v>32.62131554815076</v>
+        <v>70.26594858933314</v>
       </c>
       <c r="V36" t="n">
-        <v>32.62131554815076</v>
+        <v>39.12978170063381</v>
       </c>
       <c r="W36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="X36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
       <c r="Y36" t="n">
-        <v>32.62131554815076</v>
+        <v>7.993614811934478</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="C38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="D38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="E38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="F38" t="n">
-        <v>15.97778720725751</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G38" t="n">
-        <v>15.97778720725751</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K38" t="n">
-        <v>2.887043131405913</v>
+        <v>4.034860104392155</v>
       </c>
       <c r="L38" t="n">
-        <v>19.19936525831539</v>
+        <v>16.02148094235761</v>
       </c>
       <c r="M38" t="n">
-        <v>35.51168738522486</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N38" t="n">
-        <v>50.18030379588816</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O38" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R38" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S38" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T38" t="n">
-        <v>15.97778720725751</v>
+        <v>92.16305399055</v>
       </c>
       <c r="U38" t="n">
-        <v>15.97778720725751</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="V38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="W38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="X38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.96169578549199</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C39" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D39" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K39" t="n">
-        <v>1.318167444598745</v>
+        <v>16.09631097179661</v>
       </c>
       <c r="L39" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M39" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N39" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T39" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="U39" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="V39" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="W39" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="X39" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.96169578549199</v>
+        <v>64.73831819498363</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>15.97778720725751</v>
       </c>
       <c r="C41" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="D41" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="E41" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="F41" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="G41" t="n">
         <v>1.318167444598745</v>
@@ -7420,10 +7420,10 @@
         <v>17.63048957150822</v>
       </c>
       <c r="M41" t="n">
-        <v>17.63048957150822</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N41" t="n">
-        <v>33.86798166897869</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="O41" t="n">
         <v>50.18030379588816</v>
@@ -7438,16 +7438,16 @@
         <v>65.90837222993726</v>
       </c>
       <c r="S41" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T41" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U41" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V41" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W41" t="n">
         <v>49.26484388904401</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.96169578549199</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="C42" t="n">
-        <v>1.318167444598745</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="D42" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="E42" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="F42" t="n">
-        <v>1.318167444598745</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="G42" t="n">
         <v>1.318167444598745</v>
@@ -7523,10 +7523,10 @@
         <v>65.90837222993726</v>
       </c>
       <c r="U42" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V42" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W42" t="n">
         <v>49.26484388904401</v>
@@ -7535,7 +7535,7 @@
         <v>49.26484388904401</v>
       </c>
       <c r="Y42" t="n">
-        <v>32.62131554815076</v>
+        <v>49.26484388904401</v>
       </c>
     </row>
     <row r="43">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.24875246727849</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="C44" t="n">
-        <v>51.24875246727849</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="D44" t="n">
-        <v>34.60522412638524</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="E44" t="n">
-        <v>17.96169578549199</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="F44" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="G44" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="H44" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I44" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J44" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K44" t="n">
-        <v>1.318167444598745</v>
+        <v>2.716692659793409</v>
       </c>
       <c r="L44" t="n">
-        <v>17.63048957150822</v>
+        <v>2.716692659793409</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94281169841769</v>
+        <v>14.77814352719786</v>
       </c>
       <c r="N44" t="n">
-        <v>50.25513382532716</v>
+        <v>28.9823785679026</v>
       </c>
       <c r="O44" t="n">
-        <v>65.90837222993726</v>
+        <v>43.18661360860734</v>
       </c>
       <c r="P44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="R44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="S44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="T44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="U44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="V44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="W44" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="X44" t="n">
-        <v>51.24875246727849</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="Y44" t="n">
-        <v>51.24875246727849</v>
+        <v>42.898210101506</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.318167444598745</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="C45" t="n">
-        <v>1.318167444598745</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="D45" t="n">
-        <v>1.318167444598745</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="E45" t="n">
-        <v>1.318167444598745</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="F45" t="n">
-        <v>1.318167444598745</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="G45" t="n">
-        <v>1.318167444598745</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="H45" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I45" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J45" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K45" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="L45" t="n">
-        <v>16.97140584920884</v>
+        <v>14.77814352719786</v>
       </c>
       <c r="M45" t="n">
-        <v>33.28372797611831</v>
+        <v>28.9823785679026</v>
       </c>
       <c r="N45" t="n">
-        <v>49.59605010302779</v>
+        <v>43.18661360860734</v>
       </c>
       <c r="O45" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="P45" t="n">
-        <v>65.90837222993726</v>
+        <v>57.39084864931208</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.26484388904401</v>
+        <v>42.898210101506</v>
       </c>
       <c r="R45" t="n">
-        <v>49.26484388904401</v>
+        <v>42.898210101506</v>
       </c>
       <c r="S45" t="n">
-        <v>49.26484388904401</v>
+        <v>42.898210101506</v>
       </c>
       <c r="T45" t="n">
-        <v>49.26484388904401</v>
+        <v>42.898210101506</v>
       </c>
       <c r="U45" t="n">
-        <v>49.26484388904401</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="V45" t="n">
-        <v>32.62131554815076</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="W45" t="n">
-        <v>15.97778720725751</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="X45" t="n">
-        <v>15.97778720725751</v>
+        <v>28.40557155369991</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.97778720725751</v>
+        <v>28.40557155369991</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="C46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="D46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="E46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="F46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="G46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="H46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="I46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="J46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="K46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="L46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="M46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="N46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="O46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="P46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="R46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="S46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="T46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="U46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="V46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="W46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="X46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.318167444598745</v>
+        <v>1.147816972986242</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>103.6066955176873</v>
       </c>
       <c r="N2" t="n">
-        <v>89.21461903306817</v>
+        <v>98.46730688171658</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>48.29844313690566</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>27.76663161407612</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.216033559719307</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>39.42595839317087</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>60.20301896016258</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>90.24443850190491</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>84.88883457760923</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>39.45781263504628</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>17.45003280400815</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.73849888737621</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>52.42797864524584</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8692,7 +8692,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L11" t="n">
         <v>48.07411698098349</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>62.42182914331151</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>21.0550339701014</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>12.18328370444894</v>
       </c>
       <c r="O17" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>82.12843847474271</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9409,16 +9409,16 @@
         <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>23.10882897693548</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9643,19 +9643,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>64.5512100384678</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M23" t="n">
-        <v>23.1844148652577</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O23" t="n">
-        <v>33.92644675979642</v>
+        <v>31.80751556804141</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9722,7 +9722,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>64.5512100384678</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M26" t="n">
-        <v>23.1844148652577</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N26" t="n">
-        <v>16.4015071691621</v>
+        <v>29.57935854426437</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>17.58859436443622</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,19 +10114,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>62.89090123417875</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>20.39974253986695</v>
       </c>
       <c r="N29" t="n">
-        <v>16.4770930574843</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O29" t="n">
-        <v>36.17691080939898</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>52.90139852975953</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>60.18181479711021</v>
       </c>
       <c r="M32" t="n">
-        <v>21.52410606096864</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N32" t="n">
-        <v>16.4770930574843</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O32" t="n">
-        <v>36.17691080939898</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>52.90139852975952</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>61.76653771307705</v>
       </c>
       <c r="M35" t="n">
-        <v>21.52410606096864</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N35" t="n">
-        <v>16.4770930574843</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O35" t="n">
-        <v>36.17691080939898</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>52.90139852975953</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>64.5512100384678</v>
+        <v>60.18181479711021</v>
       </c>
       <c r="M38" t="n">
-        <v>23.1844148652577</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N38" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>52.90139852975953</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>64.5512100384678</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N41" t="n">
         <v>16.4015071691621</v>
       </c>
       <c r="O41" t="n">
-        <v>36.17691080939898</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>64.5512100384678</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>23.1844148652577</v>
+        <v>18.89060551222233</v>
       </c>
       <c r="N44" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O44" t="n">
-        <v>35.51116967576326</v>
+        <v>34.0475299142427</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>82.12843847474271</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -22561,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.2617119214337</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>350.4908290945936</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>256.4127826719547</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>108.0589192787979</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>68.61219013381478</v>
       </c>
       <c r="L2" t="n">
-        <v>18.3845087542864</v>
+        <v>26.56767907177667</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>13.67165630791752</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874355</v>
+        <v>63.46924345371096</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>126.4560770979378</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>214.7555854067128</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>237.1163363324818</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>219.6988473615285</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7953247645137</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0583805595117</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.1696458195583</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>118.4455393903557</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>85.55989919965889</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636242</v>
+        <v>18.05105516743454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.8266610081867</v>
+        <v>59.36829646109604</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>157.0877377260445</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>208.8288962802523</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.2702846491298</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6524106693511</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.2707785882662</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>167.9012283355868</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>168.8300945840842</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>134.8535758972908</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>91.69301247918033</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>66.42781572590296</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975205</v>
+        <v>63.35269930166677</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>50.87492465031224</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>75.87074873165542</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>94.25123733267668</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>154.6864125075497</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>222.6900036557397</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>244.3263081827994</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.2421535858707</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2215652880828</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1856132717812</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.7114837988406</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>253.4789894812293</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>101.6001415128599</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>58.93215652808937</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>14.55874141675068</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8498899512915159</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>52.52616251037935</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.2382790452839</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.9753536054833</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.382238353527</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.365725522675</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7892368725415</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0176641923887</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7764114318177</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>117.0436820135333</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>81.71309540932351</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>11.47625477985841</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.17088791395707</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
-        <v>154.5597513532676</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0726076189984</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.1061691167349</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6497319609877</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2366433538217</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5977350693439</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.8035549882441</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>132.4402148220645</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>87.72711887735542</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>61.35283732494487</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>58.00184614233449</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
-        <v>45.65130281936399</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>71.0458885030816</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>90.1227358867707</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.8280521032923</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>221.1551593869896</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.7314241425257</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0963030386987</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219703366204</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R11" t="n">
         <v>180.0906730958467</v>
@@ -23442,10 +23442,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M13" t="n">
         <v>24.54979951156312</v>
@@ -23737,16 +23737,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>304.7840434809196</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>345.6108427739593</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>409.0724007939313</v>
       </c>
       <c r="H17" t="n">
         <v>344.8392336363538</v>
@@ -23788,7 +23788,7 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>234.4034649017918</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.67813434720469</v>
+        <v>7.330422184876671</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7554832289223</v>
+        <v>124.4077710665942</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>188.9967889642571</v>
       </c>
       <c r="T18" t="n">
         <v>229.0801644257012</v>
@@ -23873,7 +23873,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>270.6117918903526</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>50.38579677903549</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S20" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>200.8060473231146</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>234.2381534990876</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24056,13 +24056,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>172.9475217325707</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>157.5072550678396</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>144.2860237251593</v>
       </c>
       <c r="H21" t="n">
         <v>135.3180193429644</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720376</v>
       </c>
       <c r="R21" t="n">
         <v>138.7554832289223</v>
@@ -24211,25 +24211,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>291.9812672056369</v>
       </c>
       <c r="E23" t="n">
-        <v>359.9585549362873</v>
+        <v>329.133749716475</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>368.3216123535567</v>
       </c>
       <c r="G23" t="n">
-        <v>407.1968421014776</v>
+        <v>390.8850604466974</v>
       </c>
       <c r="H23" t="n">
-        <v>328.3621405788695</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>218.660636871515</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>44.74456514246249</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
-        <v>159.4713245602917</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>144.2860237251593</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>118.8409262854801</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>91.80256629596765</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
         <v>57.66394736845585</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>138.7554832289223</v>
@@ -24341,16 +24341,16 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>244.1606313304669</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>218.47511996036</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>252.4244515431188</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>199.2082584911506</v>
       </c>
       <c r="Y24" t="n">
         <v>242.8962664135933</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.0792345395789</v>
+        <v>333.7315223772508</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24454,13 +24454,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>368.3216123535567</v>
       </c>
       <c r="G26" t="n">
         <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3621405788695</v>
+        <v>314.0144284165414</v>
       </c>
       <c r="I26" t="n">
         <v>235.1377299289993</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.34986627148761</v>
+        <v>39.71240139890909</v>
       </c>
       <c r="R26" t="n">
         <v>180.0906730958467</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>361.4518833376978</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>187.3653345577551</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24533,10 +24533,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>168.5119940349179</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>129.9383115628313</v>
       </c>
       <c r="H27" t="n">
         <v>135.3180193429644</v>
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>107.9306780091099</v>
       </c>
       <c r="S27" t="n">
         <v>203.3445011265852</v>
@@ -24581,13 +24581,13 @@
         <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
-        <v>234.7869016151402</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7721637054468</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>213.5559706534787</v>
+        <v>199.2082584911506</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24691,10 +24691,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>382.6693245158847</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>405.2327726090255</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
         <v>344.8392336363538</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.8628898365198</v>
+        <v>36.03808461670747</v>
       </c>
       <c r="R29" t="n">
-        <v>165.5776495308145</v>
+        <v>149.2658678760343</v>
       </c>
       <c r="S29" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>200.8060473231146</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>217.9263718443075</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>298.2412370416827</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>171.5356643235501</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>187.3653345577551</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24773,7 +24773,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>129.9383115628313</v>
       </c>
       <c r="H30" t="n">
         <v>135.3180193429644</v>
@@ -24806,16 +24806,16 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>124.2424596638901</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>172.5196959067728</v>
       </c>
       <c r="T30" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24827,7 +24827,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.419173356109</v>
+        <v>215.7457779759826</v>
       </c>
     </row>
     <row r="31">
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>343.481461878803</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>382.6693245158847</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>390.8850604466974</v>
       </c>
       <c r="H32" t="n">
         <v>344.8392336363538</v>
@@ -24940,7 +24940,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>44.74456514246249</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>39.71240139890909</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>149.2658678760343</v>
       </c>
       <c r="S32" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>202.7701168155668</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>217.9263718443075</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,7 +25010,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>155.2907626922377</v>
       </c>
       <c r="H33" t="n">
         <v>135.3180193429644</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.165110782172508</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>172.5196959067728</v>
       </c>
       <c r="T33" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>233.1558923633886</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8228321226881</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7721637054468</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>212.071461193781</v>
       </c>
     </row>
     <row r="34">
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>407.1968421014776</v>
+        <v>390.8850604466974</v>
       </c>
       <c r="H35" t="n">
-        <v>328.3621405788695</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>218.660636871515</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>44.74456514246249</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>36.03808461670747</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>152.9401846582359</v>
       </c>
       <c r="S35" t="n">
         <v>224.5411397984024</v>
@@ -25210,7 +25210,7 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>217.9263718443075</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25244,19 +25244,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>157.5072550678396</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
         <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>129.8456652525584</v>
       </c>
       <c r="I36" t="n">
         <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>43.15092380342367</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.201041289720376</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>122.2783901714379</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
         <v>203.3445011265852</v>
@@ -25289,13 +25289,13 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>218.47511996036</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>252.4244515431188</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25402,13 +25402,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>371.9959291357583</v>
       </c>
       <c r="G38" t="n">
         <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>330.3262100713216</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
         <v>235.1377299289993</v>
@@ -25438,19 +25438,19 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>163.6135800383623</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>208.064046740918</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>200.8060473231146</v>
+        <v>186.4583351607866</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>217.9263718443075</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>282.4796367812108</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>157.1879521612221</v>
       </c>
       <c r="C39" t="n">
-        <v>203.8424276152394</v>
+        <v>173.0176223954271</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>170.9834522401185</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25523,10 +25523,10 @@
         <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>201.9296759880905</v>
       </c>
       <c r="U39" t="n">
-        <v>235.1199618558408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25535,10 +25535,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
-        <v>213.5559706534787</v>
+        <v>199.2082584911506</v>
       </c>
       <c r="Y39" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="40">
@@ -25630,7 +25630,7 @@
         <v>348.0792345395789</v>
       </c>
       <c r="C41" t="n">
-        <v>319.0840959091763</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,7 +25642,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>407.1968421014776</v>
       </c>
       <c r="H41" t="n">
         <v>344.8392336363538</v>
@@ -25678,7 +25678,7 @@
         <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T41" t="n">
         <v>217.2831403805989</v>
@@ -25690,7 +25690,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>308.9146324218091</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>173.4997338160023</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>187.3653345577551</v>
       </c>
       <c r="D42" t="n">
-        <v>172.0989423795122</v>
+        <v>155.6218493220279</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
@@ -25721,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>146.2500932176115</v>
       </c>
       <c r="H42" t="n">
         <v>135.3180193429644</v>
@@ -25763,19 +25763,19 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7721637054468</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>350.2086154347351</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>302.6546625857633</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>343.481461878803</v>
+        <v>347.3210900637088</v>
       </c>
       <c r="F44" t="n">
-        <v>382.6693245158847</v>
+        <v>384.798705411041</v>
       </c>
       <c r="G44" t="n">
         <v>421.7098656665098</v>
@@ -25930,10 +25930,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
-        <v>334.3038557384807</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>363.5812642328541</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>173.4997338160023</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
@@ -25955,13 +25955,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>161.3468832527454</v>
       </c>
       <c r="G45" t="n">
         <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>120.9703071806363</v>
       </c>
       <c r="I45" t="n">
         <v>108.279659353452</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.201041289720376</v>
+        <v>7.330422184876671</v>
       </c>
       <c r="R45" t="n">
         <v>138.7554832289223</v>
@@ -26000,13 +26000,13 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>235.2852732585449</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8228321226881</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7721637054468</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387027.1646890633</v>
+        <v>381160.9001764265</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>389805.5005977624</v>
+        <v>387027.1646890633</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423965.8566894158</v>
+        <v>433927.3418128797</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423965.8566894158</v>
+        <v>435405.7514623975</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435405.7514623973</v>
+        <v>445513.1774560376</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435405.7514623974</v>
+        <v>445513.1774560375</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435405.7514623974</v>
+        <v>445513.1774560376</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435405.7514623974</v>
+        <v>445513.1774560376</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435405.7514623974</v>
+        <v>445513.1774560376</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435405.7514623975</v>
+        <v>445513.1774560375</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>435405.7514623974</v>
+        <v>433927.3418128798</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>125314.4150969552</v>
+      </c>
+      <c r="C2" t="n">
         <v>127589.5413650315</v>
-      </c>
-      <c r="C2" t="n">
-        <v>128653.2004882654</v>
       </c>
       <c r="D2" t="n">
         <v>128874.5116613649</v>
       </c>
       <c r="E2" t="n">
-        <v>143326.6614602754</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="F2" t="n">
-        <v>143326.6614602754</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="G2" t="n">
-        <v>143326.6614602755</v>
+        <v>146383.5264749154</v>
       </c>
       <c r="H2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805633</v>
       </c>
       <c r="I2" t="n">
-        <v>146837.2036805633</v>
+        <v>149894.0686952034</v>
       </c>
       <c r="J2" t="n">
-        <v>146837.2036805634</v>
+        <v>149894.0686952035</v>
       </c>
       <c r="K2" t="n">
-        <v>146837.2036805634</v>
+        <v>149894.0686952035</v>
       </c>
       <c r="L2" t="n">
-        <v>146837.2036805634</v>
+        <v>149894.0686952033</v>
       </c>
       <c r="M2" t="n">
-        <v>146837.2036805634</v>
+        <v>149894.0686952034</v>
       </c>
       <c r="N2" t="n">
-        <v>146837.2036805633</v>
+        <v>149894.0686952034</v>
       </c>
       <c r="O2" t="n">
         <v>146837.2036805633</v>
       </c>
       <c r="P2" t="n">
-        <v>146837.2036805633</v>
+        <v>146383.5264749154</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>318442.0815576118</v>
       </c>
       <c r="C3" t="n">
-        <v>5491.393996085815</v>
+        <v>11745.8821684014</v>
       </c>
       <c r="D3" t="n">
-        <v>1074.579704107339</v>
+        <v>6239.192452337453</v>
       </c>
       <c r="E3" t="n">
         <v>94068.42750429735</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3932.492688011675</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>574.5261299412249</v>
       </c>
       <c r="I3" t="n">
-        <v>4381.605062939286</v>
+        <v>3815.357965918429</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>19141.47878522264</v>
+      </c>
+      <c r="C4" t="n">
         <v>18435.15630119461</v>
       </c>
-      <c r="C4" t="n">
-        <v>18140.69918721784</v>
-      </c>
       <c r="D4" t="n">
-        <v>18079.432708232</v>
+        <v>18079.43270823199</v>
       </c>
       <c r="E4" t="n">
-        <v>9911.056915286681</v>
+        <v>9911.056915286679</v>
       </c>
       <c r="F4" t="n">
-        <v>9911.056915286681</v>
+        <v>9911.056915286677</v>
       </c>
       <c r="G4" t="n">
-        <v>9911.056915286681</v>
+        <v>11051.99510231259</v>
       </c>
       <c r="H4" t="n">
-        <v>9911.056915286681</v>
+        <v>11221.3246755937</v>
       </c>
       <c r="I4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="J4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="K4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="L4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="M4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="N4" t="n">
-        <v>11221.3246755937</v>
+        <v>12508.20373279602</v>
       </c>
       <c r="O4" t="n">
         <v>11221.3246755937</v>
       </c>
       <c r="P4" t="n">
-        <v>11221.3246755937</v>
+        <v>11051.99510231259</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40831.77571987503</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41244.43967227775</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26484,34 +26484,34 @@
         <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>11069.04089823339</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="I5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="J5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="K5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="L5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="M5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="N5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="O5" t="n">
         <v>11198.50725665889</v>
       </c>
       <c r="P5" t="n">
-        <v>11198.50725665889</v>
+        <v>11069.04089823339</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262830.3436868193</v>
+        <v>-269959.1453403534</v>
       </c>
       <c r="C6" t="n">
-        <v>63776.66763268405</v>
+        <v>39563.69985906634</v>
       </c>
       <c r="D6" t="n">
-        <v>68448.70617342941</v>
+        <v>46623.65219306735</v>
       </c>
       <c r="E6" t="n">
-        <v>29150.47704192757</v>
+        <v>13292.93302084623</v>
       </c>
       <c r="F6" t="n">
-        <v>123218.9045462249</v>
+        <v>107361.3605251436</v>
       </c>
       <c r="G6" t="n">
-        <v>123218.904546225</v>
+        <v>104642.2795994231</v>
       </c>
       <c r="H6" t="n">
-        <v>123218.904546225</v>
+        <v>108180.3317206375</v>
       </c>
       <c r="I6" t="n">
-        <v>120035.7666853715</v>
+        <v>106006.9707767752</v>
       </c>
       <c r="J6" t="n">
-        <v>124417.3717483108</v>
+        <v>109822.3287426936</v>
       </c>
       <c r="K6" t="n">
-        <v>124417.3717483108</v>
+        <v>109822.3287426936</v>
       </c>
       <c r="L6" t="n">
-        <v>124417.3717483108</v>
+        <v>109822.3287426935</v>
       </c>
       <c r="M6" t="n">
-        <v>124417.3717483108</v>
+        <v>109822.3287426936</v>
       </c>
       <c r="N6" t="n">
-        <v>124417.3717483107</v>
+        <v>109822.3287426936</v>
       </c>
       <c r="O6" t="n">
-        <v>124417.3717483107</v>
+        <v>108754.8578505787</v>
       </c>
       <c r="P6" t="n">
-        <v>124417.3717483107</v>
+        <v>108574.7722874347</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>330.4667761410564</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>349.3963152420985</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="I4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="J4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="K4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="L4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O4" t="n">
         <v>16.47709305748431</v>
       </c>
       <c r="P4" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>330.4667761410564</v>
       </c>
       <c r="C3" t="n">
-        <v>6.030509482832033</v>
+        <v>12.89902961821015</v>
       </c>
       <c r="D3" t="n">
-        <v>1.254743271487084</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="E3" t="n">
         <v>117.0874735398017</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.129380895156295</v>
       </c>
       <c r="I4" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.129380895156295</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.328509652828366</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>13.60559948202851</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>51.21736839066564</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>112.7555961467417</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>168.9914097509664</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562028</v>
+        <v>209.6487870387126</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>233.274670577199</v>
       </c>
       <c r="N2" t="n">
-        <v>246.3019864769461</v>
+        <v>237.0492986282977</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>223.8389307679856</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>191.0413487137853</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>143.4640967718694</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>83.45199447947994</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>30.27341371382643</v>
       </c>
       <c r="T2" t="n">
-        <v>6.042547998838951</v>
+        <v>5.815551005256176</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1062807722262693</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.7108153298128382</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640614</v>
+        <v>6.864979632666096</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>24.47324710101219</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>67.15646061183487</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003671</v>
+        <v>114.781087709295</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>154.3373372911603</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>180.1043929968757</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>184.8712203621557</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>169.1210491068291</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>135.7345518832954</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.27658878129901</v>
+        <v>90.73495332838968</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913377</v>
+        <v>44.13290267030939</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>13.20308299016389</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.865084596921044</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04676416643505517</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5959236946805934</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>5.298303394523825</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>17.92105074548549</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>42.13180521391795</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>69.23549834561801</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>88.59760093460388</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716446</v>
+        <v>93.41374788524973</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>91.19257775053123</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>84.23110549903518</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>72.07426212755101</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>49.90048319729951</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>26.79489630809286</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>10.3853247518427</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.546219422726171</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03250492880075968</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.404608302480797</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.38494477778147</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.15116158139098</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>119.2143739126797</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>178.6714433566918</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>221.6577246937386</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
-        <v>246.6369275929814</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>250.627770932405</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
-        <v>236.6606971246116</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>201.9844296571169</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.6818948245233</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>88.23222628070944</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.00751169278119</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.148672844109692</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1123686641984637</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7515316969358345</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.258214020406614</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
-        <v>25.87510447783466</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.00326440217025</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>121.3558880968712</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1779677930197</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>190.4209918069437</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>178.8085086126238</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5095921982121</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.93236187552864</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>46.66088904308631</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
-        <v>13.9593716514178</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.029200129315929</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04944287479841019</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6300589291250956</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.601796660766763</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>18.94759034132561</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>44.54516628914426</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.20139194744291</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>93.67257933556196</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>98.76460104458202</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
-        <v>96.41619958147948</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.05596572760901</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.20276357345699</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.75884360155688</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.32974057684293</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>10.98020879211644</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.692069969898135</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03436685067955071</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R11" t="n">
         <v>118.1169067903461</v>
@@ -31791,7 +31791,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U11" t="n">
         <v>0.1504284726201847</v>
@@ -31873,7 +31873,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I13" t="n">
         <v>25.36523055791157</v>
@@ -31922,7 +31922,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L13" t="n">
         <v>125.3999336590344</v>
@@ -32320,16 +32320,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
-        <v>202.635780428066</v>
+        <v>216.4037870484818</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8710246109518</v>
+        <v>222.2187367732798</v>
       </c>
       <c r="N18" t="n">
-        <v>192.087253921875</v>
+        <v>206.434966084203</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5470075</v>
+        <v>222.894719662328</v>
       </c>
       <c r="P18" t="n">
         <v>192.1169830994376</v>
@@ -32557,16 +32557,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M21" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N21" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P21" t="n">
         <v>192.1169830994376</v>
@@ -32797,13 +32797,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N24" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O24" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P24" t="n">
         <v>192.1169830994376</v>
@@ -33034,13 +33034,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N27" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O27" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P27" t="n">
         <v>192.1169830994376</v>
@@ -33271,13 +33271,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N30" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O30" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P30" t="n">
         <v>192.1169830994376</v>
@@ -33508,13 +33508,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N33" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O33" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P33" t="n">
         <v>192.1169830994376</v>
@@ -33745,13 +33745,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N36" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O36" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P36" t="n">
         <v>192.1169830994376</v>
@@ -33982,13 +33982,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N39" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O39" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P39" t="n">
         <v>192.1169830994376</v>
@@ -34453,16 +34453,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>218.4471323519146</v>
+        <v>216.4037870484818</v>
       </c>
       <c r="M45" t="n">
-        <v>224.3481176684361</v>
+        <v>222.2187367732798</v>
       </c>
       <c r="N45" t="n">
-        <v>208.5643469793593</v>
+        <v>206.434966084203</v>
       </c>
       <c r="O45" t="n">
-        <v>225.0241005574843</v>
+        <v>222.894719662328</v>
       </c>
       <c r="P45" t="n">
         <v>192.1169830994376</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>12.18328370444894</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>1.584722915966836</v>
       </c>
       <c r="L23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O23" t="n">
-        <v>14.22662900788174</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M24" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N24" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O24" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N26" t="n">
-        <v>16.4015071691621</v>
+        <v>29.57935854426437</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P26" t="n">
-        <v>15.8869378121708</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>15.81135192384858</v>
       </c>
       <c r="M27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>13.69242073209356</v>
       </c>
       <c r="N29" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O29" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P29" t="n">
         <v>15.8869378121708</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="L30" t="n">
         <v>15.81135192384858</v>
       </c>
       <c r="M30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>1.584722915966836</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="M32" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P32" t="n">
         <v>15.8869378121708</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="L33" t="n">
         <v>15.81135192384858</v>
       </c>
       <c r="M33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>13.69242073209356</v>
       </c>
       <c r="M35" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N35" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O35" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P35" t="n">
         <v>15.8869378121708</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="L36" t="n">
         <v>15.81135192384858</v>
       </c>
       <c r="M36" t="n">
-        <v>16.47709305748432</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N36" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O36" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>1.584722915966836</v>
       </c>
       <c r="L38" t="n">
-        <v>16.47709305748431</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="M38" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N38" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P38" t="n">
         <v>15.8869378121708</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="L39" t="n">
         <v>15.81135192384858</v>
       </c>
       <c r="M39" t="n">
-        <v>16.47709305748432</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N39" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O39" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>16.47709305748431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N41" t="n">
         <v>16.4015071691621</v>
       </c>
       <c r="O41" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>15.8869378121708</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L44" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>16.47709305748431</v>
+        <v>12.18328370444894</v>
       </c>
       <c r="N44" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O44" t="n">
-        <v>15.81135192384859</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>15.81135192384858</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="M45" t="n">
-        <v>16.47709305748432</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N45" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O45" t="n">
-        <v>16.47709305748431</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
